--- a/data/input/absenteeism_data_41.xlsx
+++ b/data/input/absenteeism_data_41.xlsx
@@ -476,11 +476,11 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>37378</v>
+        <v>32189</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Lívia Fernandes</t>
+          <t>Maria Cecília Aragão</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -490,118 +490,118 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45097</v>
+        <v>45082</v>
       </c>
       <c r="G2" t="n">
-        <v>2787.71</v>
+        <v>12490.86</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>47690</v>
+        <v>33652</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Theo da Rosa</t>
+          <t>Ana Beatriz Viana</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45079</v>
+        <v>45087</v>
       </c>
       <c r="G3" t="n">
-        <v>7111</v>
+        <v>11774.95</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>40490</v>
+        <v>29440</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Brenda Pinto</t>
+          <t>Heloísa da Rosa</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45095</v>
+        <v>45085</v>
       </c>
       <c r="G4" t="n">
-        <v>2734.46</v>
+        <v>10893.81</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>76346</v>
+        <v>85499</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Emanuelly da Mota</t>
+          <t>Ana Júlia Lima</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45084</v>
+        <v>45104</v>
       </c>
       <c r="G5" t="n">
-        <v>7616.2</v>
+        <v>11949.81</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1293</v>
+        <v>1980</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Sr. Davi Luiz Silva</t>
+          <t>Davi Luiz Pinto</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -610,114 +610,114 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45079</v>
+        <v>45087</v>
       </c>
       <c r="G6" t="n">
-        <v>10202.58</v>
+        <v>10673.19</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>91398</v>
+        <v>81517</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Cauã Nogueira</t>
+          <t>Julia Ramos</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45090</v>
+        <v>45106</v>
       </c>
       <c r="G7" t="n">
-        <v>6254.44</v>
+        <v>6706.06</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>92351</v>
+        <v>41899</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Rafael Jesus</t>
+          <t>Pietra Moraes</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E8" t="n">
         <v>3</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45104</v>
+        <v>45088</v>
       </c>
       <c r="G8" t="n">
-        <v>3078.63</v>
+        <v>7666.13</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>93715</v>
+        <v>61326</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Davi Lucca Costela</t>
+          <t>Sarah Ramos</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45095</v>
+        <v>45096</v>
       </c>
       <c r="G9" t="n">
-        <v>9206.18</v>
+        <v>11923.74</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>11675</v>
+        <v>34014</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Daniel Castro</t>
+          <t>Renan Lima</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -726,42 +726,42 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45082</v>
+        <v>45092</v>
       </c>
       <c r="G10" t="n">
-        <v>11961.83</v>
+        <v>4093.74</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>51298</v>
+        <v>89140</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Carlos Eduardo Cunha</t>
+          <t>Sra. Ana Carolina Teixeira</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45104</v>
+        <v>45089</v>
       </c>
       <c r="G11" t="n">
-        <v>11213.33</v>
+        <v>3859.09</v>
       </c>
     </row>
   </sheetData>
